--- a/Макеты/ADO/ВА_ЗагрузкаADO.xlsx
+++ b/Макеты/ADO/ВА_ЗагрузкаADO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BBE4A-4CE8-4770-8FF6-C949812EF03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB362C90-7219-4C7B-B4E1-FA19C6E1F108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -73,31 +73,31 @@
     <t>Реализация программных продуктов</t>
   </si>
   <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
     <t>Внедрение программных продуктов</t>
   </si>
   <si>
     <t>Апгрейд программных продуктов</t>
   </si>
   <si>
-    <t>КПГУПроф12</t>
-  </si>
-  <si>
     <t>1С:КП ГУ ПРОФ на 12 месяцев</t>
   </si>
   <si>
-    <t>КПГУПроф6</t>
-  </si>
-  <si>
     <t>1С:КП ГУ ПРОФ на 6 месяцев</t>
+  </si>
+  <si>
+    <t>3000006</t>
+  </si>
+  <si>
+    <t>30000012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm\ yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +133,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -462,14 +462,14 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="D2" s="3">
+        <v>44197</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1950000</v>
+        <v>975000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,19 +477,19 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44228</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>2050000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,39 +497,39 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44256</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>600000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44197</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>180000</v>
+        <v>1025000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,19 +537,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44228</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1250000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,39 +557,39 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2145000</v>
+        <v>1375000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>44228</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
       <c r="F8" s="1">
-        <v>2255000</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>44228</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>660000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,39 +617,39 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>198000</v>
+        <v>2423900</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>1375000</v>
+        <v>40572</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,19 +657,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>2423900</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,22 +694,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
-        <v>745800</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,19 +717,19 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>223700</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,44 +737,44 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>44256</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1">
-        <v>1553800</v>
+        <v>745800</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44197</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>625000</v>
+        <v>40572</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -786,47 +786,47 @@
         <v>44228</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>975000</v>
+        <v>2145000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
         <v>44256</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>1025000</v>
+        <v>223700</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44197</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>21440</v>
@@ -834,42 +834,42 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44228</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>40572</v>
+        <v>2255000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>21440</v>
+        <v>1553800</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,62 +877,65 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>40572</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="E24">
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>21440</v>
+        <v>40572</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
         <v>44256</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1">
-        <v>40572</v>
+        <v>660000</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F25">
+    <sortCondition ref="D2:D25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
